--- a/trunk/log/sailboat.log_27_03_2013_Labor_02.xls.xlsx
+++ b/trunk/log/sailboat.log_27_03_2013_Labor_02.xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="749">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -2278,6 +2278,12 @@
   </si>
   <si>
     <t>Max. Zeitdifferenz</t>
+  </si>
+  <si>
+    <t>Durchschnittl. Zeitdifferenz</t>
+  </si>
+  <si>
+    <t>Minimale Zeitdifferenz</t>
   </si>
 </sst>
 </file>
@@ -3441,11 +3447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112073728"/>
-        <c:axId val="112290432"/>
+        <c:axId val="93880320"/>
+        <c:axId val="93881856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112073728"/>
+        <c:axId val="93880320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112290432"/>
+        <c:crossAx val="93881856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3462,7 +3468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112290432"/>
+        <c:axId val="93881856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112073728"/>
+        <c:crossAx val="93880320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31435,11 +31441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134371584"/>
-        <c:axId val="119582720"/>
+        <c:axId val="100864384"/>
+        <c:axId val="100865920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134371584"/>
+        <c:axId val="100864384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31448,7 +31454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="119582720"/>
+        <c:crossAx val="100865920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31456,7 +31462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119582720"/>
+        <c:axId val="100865920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31467,7 +31473,6508 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134371584"/>
+        <c:crossAx val="100864384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zeitdifferenz/ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$2:$A$1064</c:f>
+              <c:strCache>
+                <c:ptCount val="1063"/>
+                <c:pt idx="0">
+                  <c:v>2013-03-27 14:30:02:0338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013-03-27 14:30:02:0560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013-03-27 14:30:02:0560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013-03-27 14:30:02:0561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013-03-27 14:30:02:0575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013-03-27 14:30:02:0709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013-03-27 14:30:02:0813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013-03-27 14:30:03:0051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013-03-27 14:30:03:0289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013-03-27 14:30:03:0339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013-03-27 14:30:03:0339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013-03-27 14:30:03:0339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013-03-27 14:30:03:0507</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013-03-27 14:30:03:0527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2013-03-27 14:30:03:0708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013-03-27 14:30:03:0708</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013-03-27 14:30:03:0708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013-03-27 14:30:03:0770</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013-03-27 14:30:03:0855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013-03-27 14:30:04:0009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013-03-27 14:30:04:0059</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013-03-27 14:30:04:0059</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2013-03-27 14:30:04:0060</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013-03-27 14:30:04:0227</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2013-03-27 14:30:04:0244</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2013-03-27 14:30:04:0427</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013-03-27 14:30:04:0427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013-03-27 14:30:04:0428</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013-03-27 14:30:04:0495</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2013-03-27 14:30:04:0643</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2013-03-27 14:30:04:0719</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2013-03-27 14:30:04:0843</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2013-03-27 14:30:04:0843</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013-03-27 14:30:04:0843</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013-03-27 14:30:04:0957</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2013-03-27 14:30:04:0983</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2013-03-27 14:30:05:0184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2013-03-27 14:30:05:0184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2013-03-27 14:30:05:0185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2013-03-27 14:30:05:0209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013-03-27 14:30:05:0359</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2013-03-27 14:30:05:0433</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2013-03-27 14:30:05:0559</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2013-03-27 14:30:05:0559</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2013-03-27 14:30:05:0559</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2013-03-27 14:30:05:0671</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2013-03-27 14:30:05:0901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2013-03-27 14:30:05:0913</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2013-03-27 14:30:06:0101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2013-03-27 14:30:06:0101</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2013-03-27 14:30:06:0102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013-03-27 14:30:06:0150</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2013-03-27 14:30:06:0388</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2013-03-27 14:30:06:0455</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2013-03-27 14:30:06:0626</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2013-03-27 14:30:06:0655</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2013-03-27 14:30:06:0655</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2013-03-27 14:30:06:0655</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2013-03-27 14:30:06:0863</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2013-03-27 14:30:07:0009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2013-03-27 14:30:07:0101</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2013-03-27 14:30:07:0210</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2013-03-27 14:30:07:0210</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2013-03-27 14:30:07:0211</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2013-03-27 14:30:07:0338</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2013-03-27 14:30:07:0561</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2013-03-27 14:30:07:0577</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2013-03-27 14:30:07:0761</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2013-03-27 14:30:07:0761</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2013-03-27 14:30:07:0761</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2013-03-27 14:30:07:0814</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2013-03-27 14:30:08:0057</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2013-03-27 14:30:08:0105</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2013-03-27 14:30:08:0300</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2013-03-27 14:30:08:0307</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2013-03-27 14:30:08:0307</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2013-03-27 14:30:08:0307</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2013-03-27 14:30:08:0531</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2013-03-27 14:30:08:0646</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2013-03-27 14:30:08:0769</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2013-03-27 14:30:08:0847</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2013-03-27 14:30:08:0847</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2013-03-27 14:30:08:0847</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2013-03-27 14:30:09:0007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2013-03-27 14:30:09:0196</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2013-03-27 14:30:09:0243</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2013-03-27 14:30:09:0397</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2013-03-27 14:30:09:0397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2013-03-27 14:30:09:0397</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2013-03-27 14:30:09:0482</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2013-03-27 14:30:09:0720</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2013-03-27 14:30:09:0762</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2013-03-27 14:30:09:0958</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2013-03-27 14:30:09:0963</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2013-03-27 14:30:09:0963</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2013-03-27 14:30:09:0963</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2013-03-27 14:30:10:0200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2013-03-27 14:30:10:0293</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2013-03-27 14:30:10:0437</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2013-03-27 14:30:10:0494</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2013-03-27 14:30:10:0494</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2013-03-27 14:30:10:0494</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2013-03-27 14:30:10:0675</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2013-03-27 14:30:10:0828</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2013-03-27 14:30:10:0912</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2013-03-27 14:30:11:0028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2013-03-27 14:30:11:0028</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2013-03-27 14:30:11:0028</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2013-03-27 14:30:11:0149</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2013-03-27 14:30:11:0376</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2013-03-27 14:30:11:0387</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2013-03-27 14:30:11:0577</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2013-03-27 14:30:11:0577</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2013-03-27 14:30:11:0577</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2013-03-27 14:30:11:0624</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2013-03-27 14:30:11:0863</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2013-03-27 14:30:11:0902</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2013-03-27 14:30:12:0101</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2013-03-27 14:30:12:0103</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2013-03-27 14:30:12:0103</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2013-03-27 14:30:12:0103</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2013-03-27 14:30:12:0343</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2013-03-27 14:30:12:0429</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2013-03-27 14:30:12:0580</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2013-03-27 14:30:12:0630</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2013-03-27 14:30:12:0630</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2013-03-27 14:30:12:0630</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2013-03-27 14:30:12:0818</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2013-03-27 14:30:12:0993</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2013-03-27 14:30:13:0056</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2013-03-27 14:30:13:0194</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2013-03-27 14:30:13:0194</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2013-03-27 14:30:13:0195</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2013-03-27 14:30:13:0294</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2013-03-27 14:30:13:0531</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2013-03-27 14:30:13:0531</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2013-03-27 14:30:13:0731</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2013-03-27 14:30:13:0731</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2013-03-27 14:30:13:0731</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2013-03-27 14:30:13:0769</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2013-03-27 14:30:14:0006</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2013-03-27 14:30:14:0113</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2013-03-27 14:30:14:0245</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2013-03-27 14:30:14:0313</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2013-03-27 14:30:14:0313</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2013-03-27 14:30:14:0314</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2013-03-27 14:30:14:0487</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2013-03-27 14:30:14:0686</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2013-03-27 14:30:14:0723</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2013-03-27 14:30:14:0888</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2013-03-27 14:30:14:0888</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2013-03-27 14:30:14:0888</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2013-03-27 14:30:14:0962</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2013-03-27 14:30:15:0199</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2013-03-27 14:30:15:0245</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2013-03-27 14:30:15:0437</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2013-03-27 14:30:15:0446</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2013-03-27 14:30:15:0446</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2013-03-27 14:30:15:0454</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2013-03-27 14:30:15:0675</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2013-03-27 14:30:15:0800</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2013-03-27 14:30:15:0922</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2013-03-27 14:30:16:0000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2013-03-27 14:30:16:0000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2013-03-27 14:30:16:0001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2013-03-27 14:30:16:0150</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2013-03-27 14:30:16:0351</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2013-03-27 14:30:16:0388</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2013-03-27 14:30:16:0551</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2013-03-27 14:30:16:0551</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2013-03-27 14:30:16:0551</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2013-03-27 14:30:16:0631</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2013-03-27 14:30:16:0867</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2013-03-27 14:30:16:0918</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2013-03-27 14:30:17:0106</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2013-03-27 14:30:17:0118</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2013-03-27 14:30:17:0118</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2013-03-27 14:30:17:0118</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2013-03-27 14:30:17:0344</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2013-03-27 14:30:17:0468</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2013-03-27 14:30:17:0581</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2013-03-27 14:30:17:0668</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2013-03-27 14:30:17:0668</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2013-03-27 14:30:17:0668</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2013-03-27 14:30:17:0818</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2013-03-27 14:30:18:0041</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2013-03-27 14:30:18:0057</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2013-03-27 14:30:18:0242</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2013-03-27 14:30:18:0242</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2013-03-27 14:30:18:0242</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2013-03-27 14:30:18:0295</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2013-03-27 14:30:18:0533</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2013-03-27 14:30:18:0580</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2013-03-27 14:30:18:0775</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2013-03-27 14:30:18:0781</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2013-03-27 14:30:18:0781</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2013-03-27 14:30:18:0782</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2013-03-27 14:30:19:0012</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2013-03-27 14:30:19:0166</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2013-03-27 14:30:19:0250</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2013-03-27 14:30:19:0367</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2013-03-27 14:30:19:0367</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2013-03-27 14:30:19:0367</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2013-03-27 14:30:19:0486</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2013-03-27 14:30:19:0725</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2013-03-27 14:30:19:0732</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2013-03-27 14:30:19:0933</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2013-03-27 14:30:19:0933</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2013-03-27 14:30:19:0933</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2013-03-27 14:30:19:0963</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2013-03-27 14:30:20:0201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2013-03-27 14:30:20:0264</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2013-03-27 14:30:20:0437</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2013-03-27 14:30:20:0465</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2013-03-27 14:30:20:0465</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2013-03-27 14:30:20:0465</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2013-03-27 14:30:20:0676</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2013-03-27 14:30:20:0796</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2013-03-27 14:30:20:0920</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2013-03-27 14:30:20:0997</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2013-03-27 14:30:20:0997</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2013-03-27 14:30:20:0997</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2013-03-27 14:30:21:0156</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2013-03-27 14:30:21:0349</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2013-03-27 14:30:21:0393</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2013-03-27 14:30:21:0549</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2013-03-27 14:30:21:0549</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2013-03-27 14:30:21:0549</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2013-03-27 14:30:21:0630</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2013-03-27 14:30:21:0869</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2013-03-27 14:30:21:0883</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2013-03-27 14:30:22:0084</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2013-03-27 14:30:22:0084</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2013-03-27 14:30:22:0084</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2013-03-27 14:30:22:0105</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2013-03-27 14:30:22:0344</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2013-03-27 14:30:22:0433</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2013-03-27 14:30:22:0583</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2013-03-27 14:30:22:0639</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2013-03-27 14:30:22:0639</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2013-03-27 14:30:22:0640</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2013-03-27 14:30:22:0819</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2013-03-27 14:30:22:0982</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2013-03-27 14:30:23:0062</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2013-03-27 14:30:23:0183</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2013-03-27 14:30:23:0183</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2013-03-27 14:30:23:0183</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2013-03-27 14:30:23:0299</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2013-03-27 14:30:23:0537</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2013-03-27 14:30:23:0546</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2013-03-27 14:30:23:0746</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2013-03-27 14:30:23:0746</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2013-03-27 14:30:23:0746</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2013-03-27 14:30:23:0773</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2013-03-27 14:30:24:0012</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2013-03-27 14:30:24:0090</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2013-03-27 14:30:24:0249</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2013-03-27 14:30:24:0291</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2013-03-27 14:30:24:0291</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2013-03-27 14:30:24:0291</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2013-03-27 14:30:24:0487</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2013-03-27 14:30:24:0634</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2013-03-27 14:30:24:0725</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2013-03-27 14:30:24:0838</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2013-03-27 14:30:24:0838</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2013-03-27 14:30:24:0839</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2013-03-27 14:30:24:0963</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2013-03-27 14:30:25:0200</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2013-03-27 14:30:25:0205</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2013-03-27 14:30:25:0401</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2013-03-27 14:30:25:0401</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2013-03-27 14:30:25:0401</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2013-03-27 14:30:25:0442</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2013-03-27 14:30:25:0680</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2013-03-27 14:30:25:0778</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2013-03-27 14:30:25:0918</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2013-03-27 14:30:25:0979</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2013-03-27 14:30:25:0979</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2013-03-27 14:30:25:0979</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2013-03-27 14:30:26:0155</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2013-03-27 14:30:26:0342</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2013-03-27 14:30:26:0392</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2013-03-27 14:30:26:0543</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2013-03-27 14:30:26:0543</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2013-03-27 14:30:26:0543</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2013-03-27 14:30:26:0631</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2013-03-27 14:30:26:0869</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2013-03-27 14:30:26:0904</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2013-03-27 14:30:27:0105</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2013-03-27 14:30:27:0105</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2013-03-27 14:30:27:0105</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2013-03-27 14:30:27:0107</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2013-03-27 14:30:27:0349</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2013-03-27 14:30:27:0457</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2013-03-27 14:30:27:0585</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2013-03-27 14:30:27:0657</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2013-03-27 14:30:27:0657</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2013-03-27 14:30:27:0657</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2013-03-27 14:30:27:0803</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2013-03-27 14:30:27:0823</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2013-03-27 14:30:28:0004</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2013-03-27 14:30:28:0004</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2013-03-27 14:30:28:0004</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2013-03-27 14:30:28:0061</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2013-03-27 14:30:28:0151</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2013-03-27 14:30:28:0299</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2013-03-27 14:30:28:0351</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2013-03-27 14:30:28:0351</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2013-03-27 14:30:28:0352</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2013-03-27 14:30:28:0495</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2013-03-27 14:30:28:0537</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2013-03-27 14:30:28:0703</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2013-03-27 14:30:28:0703</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2013-03-27 14:30:28:0704</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2013-03-27 14:30:28:0773</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2013-03-27 14:30:28:0853</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2013-03-27 14:30:29:0012</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2013-03-27 14:30:29:0054</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2013-03-27 14:30:29:0054</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2013-03-27 14:30:29:0054</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2013-03-27 14:30:29:0213</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2013-03-27 14:30:29:0249</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2013-03-27 14:30:29:0413</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2013-03-27 14:30:29:0413</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2013-03-27 14:30:29:0413</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2013-03-27 14:30:29:0492</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2013-03-27 14:30:29:0551</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2013-03-27 14:30:29:0729</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2013-03-27 14:30:29:0751</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2013-03-27 14:30:29:0751</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2013-03-27 14:30:29:0751</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2013-03-27 14:30:29:0893</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2013-03-27 14:30:29:0966</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2013-03-27 14:30:30:0093</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2013-03-27 14:30:30:0093</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2013-03-27 14:30:30:0093</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2013-03-27 14:30:30:0205</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2013-03-27 14:30:30:0277</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2013-03-27 14:30:30:0442</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2013-03-27 14:30:30:0477</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2013-03-27 14:30:30:0477</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2013-03-27 14:30:30:0477</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2013-03-27 14:30:30:0623</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2013-03-27 14:30:30:0680</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2013-03-27 14:30:30:0823</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2013-03-27 14:30:30:0823</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2013-03-27 14:30:30:0823</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2013-03-27 14:30:30:0918</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2013-03-27 14:30:30:0965</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>2013-03-27 14:30:31:0160</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2013-03-27 14:30:31:0167</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2013-03-27 14:30:31:0167</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2013-03-27 14:30:31:0167</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2013-03-27 14:30:31:0309</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>2013-03-27 14:30:31:0392</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2013-03-27 14:30:31:0509</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2013-03-27 14:30:31:0509</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2013-03-27 14:30:31:0509</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2013-03-27 14:30:31:0636</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2013-03-27 14:30:31:0649</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2013-03-27 14:30:31:0849</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2013-03-27 14:30:31:0849</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2013-03-27 14:30:31:0849</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2013-03-27 14:30:31:0872</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2013-03-27 14:30:32:0012</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2013-03-27 14:30:32:0110</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2013-03-27 14:30:32:0213</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2013-03-27 14:30:32:0213</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2013-03-27 14:30:32:0213</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2013-03-27 14:30:32:0348</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2013-03-27 14:30:32:0353</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2013-03-27 14:30:32:0554</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2013-03-27 14:30:32:0554</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2013-03-27 14:30:32:0554</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2013-03-27 14:30:32:0586</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2013-03-27 14:30:32:0715</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2013-03-27 14:30:32:0823</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2013-03-27 14:30:32:0915</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2013-03-27 14:30:32:0915</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2013-03-27 14:30:32:0916</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2013-03-27 14:30:33:0061</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2013-03-27 14:30:33:0064</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2013-03-27 14:30:33:0265</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2013-03-27 14:30:33:0265</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2013-03-27 14:30:33:0265</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2013-03-27 14:30:33:0299</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2013-03-27 14:30:33:0427</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2013-03-27 14:30:33:0536</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2013-03-27 14:30:33:0627</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2013-03-27 14:30:33:0627</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2013-03-27 14:30:33:0627</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2013-03-27 14:30:33:0766</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2013-03-27 14:30:33:0778</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2013-03-27 14:30:33:0966</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2013-03-27 14:30:33:0966</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2013-03-27 14:30:33:0966</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2013-03-27 14:30:34:0017</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2013-03-27 14:30:34:0146</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2013-03-27 14:30:34:0254</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>2013-03-27 14:30:34:0346</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2013-03-27 14:30:34:0346</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2013-03-27 14:30:34:0346</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2013-03-27 14:30:34:0493</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2013-03-27 14:30:34:0523</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2013-03-27 14:30:34:0723</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2013-03-27 14:30:34:0723</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2013-03-27 14:30:34:0723</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2013-03-27 14:30:34:0729</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2013-03-27 14:30:34:0875</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2013-03-27 14:30:34:0968</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2013-03-27 14:30:35:0075</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2013-03-27 14:30:35:0075</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2013-03-27 14:30:35:0075</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2013-03-27 14:30:35:0205</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2013-03-27 14:30:35:0233</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2013-03-27 14:30:35:0435</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2013-03-27 14:30:35:0435</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2013-03-27 14:30:35:0435</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2013-03-27 14:30:35:0444</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2013-03-27 14:30:35:0575</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2013-03-27 14:30:35:0681</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2013-03-27 14:30:35:0775</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2013-03-27 14:30:35:0775</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2013-03-27 14:30:35:0775</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2013-03-27 14:30:35:0924</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2013-03-27 14:30:35:0929</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2013-03-27 14:30:36:0129</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2013-03-27 14:30:36:0129</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2013-03-27 14:30:36:0129</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2013-03-27 14:30:36:0160</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2013-03-27 14:30:36:0285</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2013-03-27 14:30:36:0398</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2013-03-27 14:30:36:0486</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2013-03-27 14:30:36:0486</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2013-03-27 14:30:36:0486</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2013-03-27 14:30:36:0635</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2013-03-27 14:30:36:0829</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2013-03-27 14:30:36:0874</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2013-03-27 14:30:37:0029</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2013-03-27 14:30:37:0029</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2013-03-27 14:30:37:0029</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2013-03-27 14:30:37:0111</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2013-03-27 14:30:37:0349</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2013-03-27 14:30:37:0375</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2013-03-27 14:30:37:0575</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2013-03-27 14:30:37:0575</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2013-03-27 14:30:37:0575</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2013-03-27 14:30:37:0587</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2013-03-27 14:30:37:0825</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2013-03-27 14:30:37:0907</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2013-03-27 14:30:38:0067</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2013-03-27 14:30:38:0108</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2013-03-27 14:30:38:0108</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2013-03-27 14:30:38:0108</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2013-03-27 14:30:38:0304</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2013-03-27 14:30:38:0449</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>2013-03-27 14:30:38:0541</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>2013-03-27 14:30:38:0649</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2013-03-27 14:30:38:0649</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2013-03-27 14:30:38:0649</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2013-03-27 14:30:38:0780</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>2013-03-27 14:30:38:0993</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>2013-03-27 14:30:39:0018</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>2013-03-27 14:30:39:0193</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2013-03-27 14:30:39:0193</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>2013-03-27 14:30:39:0193</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2013-03-27 14:30:39:0255</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2013-03-27 14:30:39:0493</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>2013-03-27 14:30:39:0551</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>2013-03-27 14:30:39:0731</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2013-03-27 14:30:39:0751</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2013-03-27 14:30:39:0751</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2013-03-27 14:30:39:0751</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2013-03-27 14:30:39:0889</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>2013-03-27 14:30:39:0967</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2013-03-27 14:30:40:0090</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2013-03-27 14:30:40:0090</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2013-03-27 14:30:40:0091</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2013-03-27 14:30:40:0211</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>2013-03-27 14:30:40:0233</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2013-03-27 14:30:40:0433</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2013-03-27 14:30:40:0433</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2013-03-27 14:30:40:0433</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>2013-03-27 14:30:40:0448</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2013-03-27 14:30:40:0579</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2013-03-27 14:30:40:0693</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2013-03-27 14:30:40:0780</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>2013-03-27 14:30:40:0780</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2013-03-27 14:30:40:0780</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>2013-03-27 14:30:40:0919</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>2013-03-27 14:30:40:0923</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2013-03-27 14:30:41:0119</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2013-03-27 14:30:41:0119</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2013-03-27 14:30:41:0119</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2013-03-27 14:30:41:0161</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>2013-03-27 14:30:41:0261</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>2013-03-27 14:30:41:0398</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2013-03-27 14:30:41:0461</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2013-03-27 14:30:41:0461</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2013-03-27 14:30:41:0461</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>2013-03-27 14:30:41:0629</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>2013-03-27 14:30:41:0636</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>2013-03-27 14:30:41:0830</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2013-03-27 14:30:41:0830</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>2013-03-27 14:30:41:0830</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>2013-03-27 14:30:41:0874</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2013-03-27 14:30:41:0973</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2013-03-27 14:30:42:0112</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>2013-03-27 14:30:42:0173</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>2013-03-27 14:30:42:0173</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>2013-03-27 14:30:42:0174</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>2013-03-27 14:30:42:0329</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>2013-03-27 14:30:42:0354</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>2013-03-27 14:30:42:0530</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>2013-03-27 14:30:42:0530</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>2013-03-27 14:30:42:0530</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>2013-03-27 14:30:42:0591</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>2013-03-27 14:30:42:0671</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>2013-03-27 14:30:42:0829</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>2013-03-27 14:30:42:0871</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>2013-03-27 14:30:42:0871</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>2013-03-27 14:30:42:0871</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>2013-03-27 14:30:43:0023</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>2013-03-27 14:30:43:0066</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>2013-03-27 14:30:43:0223</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>2013-03-27 14:30:43:0223</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>2013-03-27 14:30:43:0223</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>2013-03-27 14:30:43:0306</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>2013-03-27 14:30:43:0403</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>2013-03-27 14:30:43:0542</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>2013-03-27 14:30:43:0603</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>2013-03-27 14:30:43:0603</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>2013-03-27 14:30:43:0603</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>2013-03-27 14:30:43:0779</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>2013-03-27 14:30:43:0787</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>2013-03-27 14:30:43:0988</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>2013-03-27 14:30:43:0988</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>2013-03-27 14:30:43:0988</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>2013-03-27 14:30:44:0016</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>2013-03-27 14:30:44:0196</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>2013-03-27 14:30:44:0254</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>2013-03-27 14:30:44:0396</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>2013-03-27 14:30:44:0396</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>2013-03-27 14:30:44:0396</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>2013-03-27 14:30:44:0498</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>2013-03-27 14:30:44:0738</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>2013-03-27 14:30:44:0812</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>2013-03-27 14:30:44:0973</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>2013-03-27 14:30:45:0012</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>2013-03-27 14:30:45:0012</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>2013-03-27 14:30:45:0013</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>2013-03-27 14:30:45:0209</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>2013-03-27 14:30:45:0447</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>2013-03-27 14:30:45:0498</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>2013-03-27 14:30:45:0684</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>2013-03-27 14:30:45:0699</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>2013-03-27 14:30:45:0699</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>2013-03-27 14:30:45:0699</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>2013-03-27 14:30:45:0923</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>2013-03-27 14:30:46:0160</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>2013-03-27 14:30:46:0200</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>2013-03-27 14:30:46:0397</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>2013-03-27 14:30:46:0401</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>2013-03-27 14:30:46:0401</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>2013-03-27 14:30:46:0401</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>2013-03-27 14:30:46:0640</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>2013-03-27 14:30:46:0877</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>2013-03-27 14:30:46:0884</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>2013-03-27 14:30:47:0084</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>2013-03-27 14:30:47:0084</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>2013-03-27 14:30:47:0084</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>2013-03-27 14:30:47:0115</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>2013-03-27 14:30:47:0353</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>2013-03-27 14:30:47:0532</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>2013-03-27 14:30:47:0591</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>2013-03-27 14:30:47:0733</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>2013-03-27 14:30:47:0733</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>2013-03-27 14:30:47:0733</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>2013-03-27 14:30:47:0830</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>2013-03-27 14:30:48:0066</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>2013-03-27 14:30:48:0230</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>2013-03-27 14:30:48:0305</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>2013-03-27 14:30:48:0431</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>2013-03-27 14:30:48:0431</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>2013-03-27 14:30:48:0432</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>2013-03-27 14:30:48:0545</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>2013-03-27 14:30:48:0784</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>2013-03-27 14:30:48:0886</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>2013-03-27 14:30:49:0022</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>2013-03-27 14:30:49:0086</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>2013-03-27 14:30:49:0086</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>2013-03-27 14:30:49:0086</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>2013-03-27 14:30:49:0259</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>2013-03-27 14:30:49:0497</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>2013-03-27 14:30:49:0540</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>2013-03-27 14:30:49:0734</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>2013-03-27 14:30:49:0742</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>2013-03-27 14:30:49:0742</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>2013-03-27 14:30:49:0742</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>2013-03-27 14:30:49:0972</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>2013-03-27 14:30:50:0166</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>2013-03-27 14:30:50:0210</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>2013-03-27 14:30:50:0367</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>2013-03-27 14:30:50:0367</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>2013-03-27 14:30:50:0367</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>2013-03-27 14:30:50:0447</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>2013-03-27 14:30:50:0686</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>2013-03-27 14:30:50:0798</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>2013-03-27 14:30:50:0928</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>2013-03-27 14:30:50:0999</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>2013-03-27 14:30:50:0999</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>2013-03-27 14:30:50:0999</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>2013-03-27 14:30:51:0165</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>2013-03-27 14:30:51:0403</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>2013-03-27 14:30:51:0418</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>2013-03-27 14:30:51:0619</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>2013-03-27 14:30:51:0619</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>2013-03-27 14:30:51:0619</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>2013-03-27 14:30:51:0641</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>2013-03-27 14:30:51:0879</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>2013-03-27 14:30:52:0029</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>2013-03-27 14:30:52:0117</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>2013-03-27 14:30:52:0230</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>2013-03-27 14:30:52:0230</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>2013-03-27 14:30:52:0230</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>2013-03-27 14:30:52:0354</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>2013-03-27 14:30:52:0592</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>2013-03-27 14:30:52:0667</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>2013-03-27 14:30:52:0830</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>2013-03-27 14:30:52:0868</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>2013-03-27 14:30:52:0868</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>2013-03-27 14:30:52:0868</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>2013-03-27 14:30:53:0074</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>2013-03-27 14:30:53:0296</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>2013-03-27 14:30:53:0309</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>2013-03-27 14:30:53:0497</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>2013-03-27 14:30:53:0497</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>2013-03-27 14:30:53:0497</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>2013-03-27 14:30:53:0546</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>2013-03-27 14:30:53:0785</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>2013-03-27 14:30:53:0925</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>2013-03-27 14:30:54:0024</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>2013-03-27 14:30:54:0125</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>2013-03-27 14:30:54:0125</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>2013-03-27 14:30:54:0126</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>2013-03-27 14:30:54:0260</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>2013-03-27 14:30:54:0498</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>2013-03-27 14:30:54:0531</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>2013-03-27 14:30:54:0731</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>2013-03-27 14:30:54:0731</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>2013-03-27 14:30:54:0731</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>2013-03-27 14:30:54:0735</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>2013-03-27 14:30:54:0972</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>2013-03-27 14:30:55:0159</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>2013-03-27 14:30:55:0216</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>2013-03-27 14:30:55:0360</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>2013-03-27 14:30:55:0360</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>2013-03-27 14:30:55:0360</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>2013-03-27 14:30:55:0453</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>2013-03-27 14:30:55:0690</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>2013-03-27 14:30:55:0818</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>2013-03-27 14:30:55:0949</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>2013-03-27 14:30:56:0165</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>2013-03-27 14:30:56:0244</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>2013-03-27 14:30:56:0244</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>2013-03-27 14:30:56:0244</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>2013-03-27 14:30:56:0478</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>2013-03-27 14:30:56:0643</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>2013-03-27 14:30:56:0709</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>2013-03-27 14:30:56:0879</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>2013-03-27 14:30:56:0909</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>2013-03-27 14:30:56:0909</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>2013-03-27 14:30:56:0909</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>2013-03-27 14:30:57:0120</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>2013-03-27 14:30:57:0326</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>2013-03-27 14:30:57:0359</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>2013-03-27 14:30:57:0528</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>2013-03-27 14:30:57:0528</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>2013-03-27 14:30:57:0528</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>2013-03-27 14:30:57:0595</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>2013-03-27 14:30:57:0834</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>2013-03-27 14:30:57:0947</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>2013-03-27 14:30:58:0071</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>2013-03-27 14:30:58:0155</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>2013-03-27 14:30:58:0155</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>2013-03-27 14:30:58:0155</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>2013-03-27 14:30:58:0309</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>2013-03-27 14:30:58:0560</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>2013-03-27 14:30:58:0602</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>2013-03-27 14:30:58:0785</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>2013-03-27 14:30:58:0802</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>2013-03-27 14:30:58:0802</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>2013-03-27 14:30:58:0802</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>2013-03-27 14:30:59:0022</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>2013-03-27 14:30:59:0260</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>2013-03-27 14:30:59:0302</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>2013-03-27 14:30:59:0503</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>2013-03-27 14:30:59:0504</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>2013-03-27 14:30:59:0504</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>2013-03-27 14:30:59:0504</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>2013-03-27 14:30:59:0739</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>2013-03-27 14:30:59:0942</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>2013-03-27 14:30:59:0977</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>2013-03-27 14:31:00:0143</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>2013-03-27 14:31:00:0143</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>2013-03-27 14:31:00:0144</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>2013-03-27 14:31:00:0215</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>2013-03-27 14:31:00:0453</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>2013-03-27 14:31:00:0571</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>2013-03-27 14:31:00:0691</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>2013-03-27 14:31:00:0771</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>2013-03-27 14:31:00:0771</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>2013-03-27 14:31:00:0771</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>2013-03-27 14:31:00:0929</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>2013-03-27 14:31:01:0166</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>2013-03-27 14:31:01:0205</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>2013-03-27 14:31:01:0404</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>2013-03-27 14:31:01:0405</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>2013-03-27 14:31:01:0405</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>2013-03-27 14:31:01:0405</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>2013-03-27 14:31:01:0571</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>2013-03-27 14:31:01:0646</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>2013-03-27 14:31:01:0771</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>2013-03-27 14:31:01:0771</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>2013-03-27 14:31:01:0771</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>2013-03-27 14:31:01:0883</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>2013-03-27 14:31:01:0954</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>2013-03-27 14:31:02:0121</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>2013-03-27 14:31:02:0154</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>2013-03-27 14:31:02:0154</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>2013-03-27 14:31:02:0154</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>2013-03-27 14:31:02:0297</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>2013-03-27 14:31:02:0359</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>2013-03-27 14:31:02:0498</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>2013-03-27 14:31:02:0498</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>2013-03-27 14:31:02:0498</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>2013-03-27 14:31:02:0597</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>2013-03-27 14:31:02:0669</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>2013-03-27 14:31:02:0834</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>2013-03-27 14:31:02:0869</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>2013-03-27 14:31:02:0869</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>2013-03-27 14:31:02:0869</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>2013-03-27 14:31:03:0013</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>2013-03-27 14:31:03:0072</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>2013-03-27 14:31:03:0214</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>2013-03-27 14:31:03:0214</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>2013-03-27 14:31:03:0214</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>2013-03-27 14:31:03:0309</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>2013-03-27 14:31:03:0355</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>2013-03-27 14:31:03:0547</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>2013-03-27 14:31:03:0555</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>2013-03-27 14:31:03:0555</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>2013-03-27 14:31:03:0555</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>2013-03-27 14:31:03:0711</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>2013-03-27 14:31:03:0791</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>2013-03-27 14:31:03:0911</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>2013-03-27 14:31:03:0911</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>2013-03-27 14:31:03:0911</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>2013-03-27 14:31:04:0031</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>2013-03-27 14:31:04:0103</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>2013-03-27 14:31:04:0264</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>2013-03-27 14:31:04:0303</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>2013-03-27 14:31:04:0303</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>2013-03-27 14:31:04:0303</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>2013-03-27 14:31:04:0441</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>2013-03-27 14:31:04:0503</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>2013-03-27 14:31:04:0641</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>2013-03-27 14:31:04:0641</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>2013-03-27 14:31:04:0641</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>2013-03-27 14:31:04:0739</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>2013-03-27 14:31:04:0787</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>2013-03-27 14:31:04:0977</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>2013-03-27 14:31:04:0987</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>2013-03-27 14:31:04:0987</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>2013-03-27 14:31:04:0987</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>2013-03-27 14:31:05:0129</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>2013-03-27 14:31:05:0222</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>2013-03-27 14:31:05:0329</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>2013-03-27 14:31:05:0329</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>2013-03-27 14:31:05:0329</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>2013-03-27 14:31:05:0454</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>2013-03-27 14:31:05:0469</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>2013-03-27 14:31:05:0670</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>2013-03-27 14:31:05:0670</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>2013-03-27 14:31:05:0670</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>2013-03-27 14:31:05:0691</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>2013-03-27 14:31:05:0810</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>2013-03-27 14:31:05:0934</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>2013-03-27 14:31:06:0011</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>2013-03-27 14:31:06:0011</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>2013-03-27 14:31:06:0011</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>2013-03-27 14:31:06:0168</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>2013-03-27 14:31:06:0170</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>2013-03-27 14:31:06:0368</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>2013-03-27 14:31:06:0368</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>2013-03-27 14:31:06:0368</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>2013-03-27 14:31:06:0407</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>2013-03-27 14:31:06:0519</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>2013-03-27 14:31:06:0646</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>2013-03-27 14:31:06:0720</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>2013-03-27 14:31:06:0720</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>2013-03-27 14:31:06:0720</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>2013-03-27 14:31:06:0872</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>2013-03-27 14:31:06:0884</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>2013-03-27 14:31:07:0072</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>2013-03-27 14:31:07:0072</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>2013-03-27 14:31:07:0073</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>2013-03-27 14:31:07:0121</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>2013-03-27 14:31:07:0216</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>2013-03-27 14:31:07:0358</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>2013-03-27 14:31:07:0416</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>2013-03-27 14:31:07:0416</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>2013-03-27 14:31:07:0417</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>2013-03-27 14:31:07:0597</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>2013-03-27 14:31:07:0758</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>2013-03-27 14:31:07:0834</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>2013-03-27 14:31:07:0959</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>2013-03-27 14:31:07:0959</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>2013-03-27 14:31:07:0959</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>2013-03-27 14:31:08:0077</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>2013-03-27 14:31:08:0294</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>2013-03-27 14:31:08:0314</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>2013-03-27 14:31:08:0495</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>2013-03-27 14:31:08:0495</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>2013-03-27 14:31:08:0495</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>2013-03-27 14:31:08:0552</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>2013-03-27 14:31:08:0789</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>2013-03-27 14:31:08:0834</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>2013-03-27 14:31:09:0027</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>2013-03-27 14:31:09:0035</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>2013-03-27 14:31:09:0035</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>2013-03-27 14:31:09:0035</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>2013-03-27 14:31:09:0266</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>2013-03-27 14:31:09:0417</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>2013-03-27 14:31:09:0504</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>2013-03-27 14:31:09:0618</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>2013-03-27 14:31:09:0618</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>2013-03-27 14:31:09:0618</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>2013-03-27 14:31:09:0742</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>2013-03-27 14:31:09:0963</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>2013-03-27 14:31:09:0981</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>2013-03-27 14:31:10:0164</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>2013-03-27 14:31:10:0164</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>2013-03-27 14:31:10:0164</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>2013-03-27 14:31:10:0221</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>2013-03-27 14:31:10:0317</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>2013-03-27 14:31:10:0459</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>2013-03-27 14:31:10:0518</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>2013-03-27 14:31:10:0518</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>2013-03-27 14:31:10:0519</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>2013-03-27 14:31:10:0671</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>2013-03-27 14:31:10:0697</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>2013-03-27 14:31:10:0872</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>2013-03-27 14:31:10:0872</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>2013-03-27 14:31:10:0872</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>2013-03-27 14:31:10:0933</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>2013-03-27 14:31:11:0022</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>2013-03-27 14:31:11:0172</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>2013-03-27 14:31:11:0222</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>2013-03-27 14:31:11:0222</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>2013-03-27 14:31:11:0222</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>2013-03-27 14:31:11:0363</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>2013-03-27 14:31:11:0410</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>2013-03-27 14:31:11:0563</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>2013-03-27 14:31:11:0563</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>2013-03-27 14:31:11:0563</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>2013-03-27 14:31:11:0646</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>2013-03-27 14:31:11:0715</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>2013-03-27 14:31:11:0885</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>2013-03-27 14:31:11:0916</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>2013-03-27 14:31:11:0916</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>2013-03-27 14:31:11:0916</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>2013-03-27 14:31:12:0073</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>2013-03-27 14:31:12:0123</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>2013-03-27 14:31:12:0273</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>2013-03-27 14:31:12:0273</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>2013-03-27 14:31:12:0273</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>2013-03-27 14:31:12:0365</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>2013-03-27 14:31:12:0409</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>2013-03-27 14:31:12:0601</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>2013-03-27 14:31:12:0609</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>2013-03-27 14:31:12:0609</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>2013-03-27 14:31:12:0609</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>2013-03-27 14:31:12:0749</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>2013-03-27 14:31:12:0840</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>2013-03-27 14:31:12:0950</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>2013-03-27 14:31:12:0950</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>2013-03-27 14:31:12:0950</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>2013-03-27 14:31:13:0077</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>2013-03-27 14:31:13:0119</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>2013-03-27 14:31:13:0315</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>2013-03-27 14:31:13:0319</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>2013-03-27 14:31:13:0319</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>2013-03-27 14:31:13:0319</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>2013-03-27 14:31:13:0465</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>2013-03-27 14:31:13:0555</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>2013-03-27 14:31:13:0665</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>2013-03-27 14:31:13:0665</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>2013-03-27 14:31:13:0665</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>2013-03-27 14:31:13:0791</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>2013-03-27 14:31:13:0799</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>2013-03-27 14:31:14:0000</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>2013-03-27 14:31:14:0000</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>2013-03-27 14:31:14:0001</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>2013-03-27 14:31:14:0029</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>2013-03-27 14:31:14:0135</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>2013-03-27 14:31:14:0266</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>2013-03-27 14:31:14:0335</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>2013-03-27 14:31:14:0335</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>2013-03-27 14:31:14:0335</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>2013-03-27 14:31:14:0475</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>2013-03-27 14:31:14:0509</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>2013-03-27 14:31:14:0675</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>2013-03-27 14:31:14:0675</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>2013-03-27 14:31:14:0675</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>2013-03-27 14:31:14:0746</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>2013-03-27 14:31:14:0831</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>2013-03-27 14:31:14:0985</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>2013-03-27 14:31:15:0033</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>2013-03-27 14:31:15:0033</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>2013-03-27 14:31:15:0035</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>2013-03-27 14:31:15:0197</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>2013-03-27 14:31:15:0222</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>2013-03-27 14:31:15:0397</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>2013-03-27 14:31:15:0397</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>2013-03-27 14:31:15:0397</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>2013-03-27 14:31:15:0459</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>2013-03-27 14:31:15:0545</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>2013-03-27 14:31:15:0696</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>2013-03-27 14:31:15:0745</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>2013-03-27 14:31:15:0745</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>2013-03-27 14:31:15:0745</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>2013-03-27 14:31:15:0885</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>2013-03-27 14:31:15:0935</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>2013-03-27 14:31:16:0085</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>2013-03-27 14:31:16:0085</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>2013-03-27 14:31:16:0085</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>2013-03-27 14:31:16:0173</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>2013-03-27 14:31:16:0223</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>2013-03-27 14:31:16:0410</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>2013-03-27 14:31:16:0423</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>2013-03-27 14:31:16:0423</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>2013-03-27 14:31:16:0423</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>2013-03-27 14:31:16:0581</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>2013-03-27 14:31:16:0653</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>2013-03-27 14:31:16:0781</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>2013-03-27 14:31:16:0781</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>2013-03-27 14:31:16:0781</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>2013-03-27 14:31:16:0890</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>2013-03-27 14:31:16:0927</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>2013-03-27 14:31:17:0127</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>2013-03-27 14:31:17:0128</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>2013-03-27 14:31:17:0128</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>2013-03-27 14:31:17:0128</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>2013-03-27 14:31:17:0267</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>2013-03-27 14:31:17:0367</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>2013-03-27 14:31:17:0467</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>2013-03-27 14:31:17:0467</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>2013-03-27 14:31:17:0467</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>2013-03-27 14:31:17:0603</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>2013-03-27 14:31:17:0605</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>2013-03-27 14:31:17:0805</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>2013-03-27 14:31:17:0805</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>2013-03-27 14:31:17:0805</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>2013-03-27 14:31:17:0841</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>2013-03-27 14:31:17:0947</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>2013-03-27 14:31:18:0079</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>2013-03-27 14:31:18:0148</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>2013-03-27 14:31:18:0148</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>2013-03-27 14:31:18:0148</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>2013-03-27 14:31:18:0305</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>2013-03-27 14:31:18:0317</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>2013-03-27 14:31:18:0505</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>2013-03-27 14:31:18:0505</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>2013-03-27 14:31:18:0505</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>2013-03-27 14:31:18:0555</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>2013-03-27 14:31:18:0642</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>2013-03-27 14:31:18:0797</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>2013-03-27 14:31:18:0842</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>2013-03-27 14:31:18:0842</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>2013-03-27 14:31:18:0842</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>2013-03-27 14:31:19:0001</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>2013-03-27 14:31:19:0033</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>2013-03-27 14:31:19:0202</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>2013-03-27 14:31:19:0202</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>2013-03-27 14:31:19:0202</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>2013-03-27 14:31:19:0273</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>2013-03-27 14:31:19:0345</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>2013-03-27 14:31:19:0508</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>2013-03-27 14:31:19:0545</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>2013-03-27 14:31:19:0545</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>2013-03-27 14:31:19:0545</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>2013-03-27 14:31:19:0699</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>2013-03-27 14:31:19:0747</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>2013-03-27 14:31:19:0899</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>2013-03-27 14:31:19:0899</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>2013-03-27 14:31:19:0899</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>2013-03-27 14:31:19:0985</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>2013-03-27 14:31:20:0222</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>2013-03-27 14:31:20:0248</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>2013-03-27 14:31:20:0449</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>2013-03-27 14:31:20:0449</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>2013-03-27 14:31:20:0450</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>2013-03-27 14:31:20:0461</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>2013-03-27 14:31:20:0698</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>2013-03-27 14:31:20:0824</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>2013-03-27 14:31:20:0940</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>2013-03-27 14:31:21:0024</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>2013-03-27 14:31:21:0024</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>2013-03-27 14:31:21:0024</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>2013-03-27 14:31:21:0177</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>2013-03-27 14:31:21:0392</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>2013-03-27 14:31:21:0414</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>2013-03-27 14:31:21:0592</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>2013-03-27 14:31:21:0592</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>2013-03-27 14:31:21:0592</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>2013-03-27 14:31:21:0653</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>2013-03-27 14:31:21:0890</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>2013-03-27 14:31:21:0934</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>2013-03-27 14:31:22:0128</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>2013-03-27 14:31:22:0135</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>2013-03-27 14:31:22:0135</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>2013-03-27 14:31:22:0135</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>2013-03-27 14:31:22:0365</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>2013-03-27 14:31:22:0472</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>2013-03-27 14:31:22:0603</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>2013-03-27 14:31:22:0672</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>2013-03-27 14:31:22:0672</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>2013-03-27 14:31:22:0672</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>2013-03-27 14:31:22:0841</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>2013-03-27 14:31:23:0032</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>2013-03-27 14:31:23:0083</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>2013-03-27 14:31:23:0232</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>2013-03-27 14:31:23:0232</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>2013-03-27 14:31:23:0232</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>2013-03-27 14:31:23:0322</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>2013-03-27 14:31:23:0558</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>2013-03-27 14:31:23:0582</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>2013-03-27 14:31:23:0783</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>2013-03-27 14:31:23:0783</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>2013-03-27 14:31:23:0783</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>2013-03-27 14:31:23:0796</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>2013-03-27 14:31:24:0034</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>2013-03-27 14:31:24:0151</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>2013-03-27 14:31:24:0272</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>2013-03-27 14:31:24:0351</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>2013-03-27 14:31:24:0351</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>2013-03-27 14:31:24:0351</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>2013-03-27 14:31:24:0509</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>2013-03-27 14:31:24:0700</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>2013-03-27 14:31:24:0746</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>2013-03-27 14:31:24:0900</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>2013-03-27 14:31:24:0900</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>2013-03-27 14:31:24:0900</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>2013-03-27 14:31:24:0985</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>2013-03-27 14:31:25:0227</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>2013-03-27 14:31:25:0234</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>2013-03-27 14:31:25:0435</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>2013-03-27 14:31:25:0435</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>2013-03-27 14:31:25:0435</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>2013-03-27 14:31:25:0464</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>2013-03-27 14:31:25:0702</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>2013-03-27 14:31:25:0792</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$1064</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1063"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="122984704"/>
+        <c:axId val="38117376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122984704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38117376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38117376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122984704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31478,13 +37985,13 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -31538,6 +38045,41 @@
       <xdr:colOff>721179</xdr:colOff>
       <xdr:row>1083</xdr:row>
       <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1024</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1055</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31852,8 +38394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1064"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1022" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1064"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31866,7 +38408,7 @@
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -31939,6 +38481,13 @@
       <c r="L2">
         <v>180</v>
       </c>
+      <c r="N2" t="s">
+        <v>747</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(H2:H1064)</f>
+        <v>78.507996237064916</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -31965,6 +38514,13 @@
       </c>
       <c r="L3">
         <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>748</v>
+      </c>
+      <c r="O3">
+        <f>MIN(H2:H1064)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -60637,10 +67193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1025" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>